--- a/docs/Iteration Plan_Agile Backlog and Release Summary.xlsx
+++ b/docs/Iteration Plan_Agile Backlog and Release Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aportal\Courses\Fall24\INFO8003\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuconestogacon-my.sharepoint.com/personal/zpeng0022_conestogac_on_ca/Documents/CAD/System Conception/Maior Project/MajorProject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC81CF1-3070-4FE0-B983-48FD98F9F882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{5EC81CF1-3070-4FE0-B983-48FD98F9F882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2E731B-CEF1-6244-9E67-E558A2827843}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4F8364D9-F33F-4911-8F06-4075FAA056D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4F8364D9-F33F-4911-8F06-4075FAA056D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Backlog 1" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
   <si>
     <t>Iteration 1 Backlog</t>
   </si>
@@ -468,6 +468,132 @@
 needed to complete each task. 
 Each group should expect to work  9 person-days (PD)  per week. A reminder that 1 person day is equal to 4 person hours.</t>
     </r>
+  </si>
+  <si>
+    <t>Develop User model</t>
+  </si>
+  <si>
+    <t>Develop Child model</t>
+  </si>
+  <si>
+    <t>Design database schema</t>
+  </si>
+  <si>
+    <t>Create frontend points page</t>
+  </si>
+  <si>
+    <t>Develop Feedback model</t>
+  </si>
+  <si>
+    <t>Design feedback page layout</t>
+  </si>
+  <si>
+    <t>Implement basic CRUD operations</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>Integrate Points model</t>
+  </si>
+  <si>
+    <t>Add points redemption feature</t>
+  </si>
+  <si>
+    <t>Optimize leaderboard display</t>
+  </si>
+  <si>
+    <t>Integrate Activity model</t>
+  </si>
+  <si>
+    <t>Add filtering and export features</t>
+  </si>
+  <si>
+    <t>Improve UI responsiveness</t>
+  </si>
+  <si>
+    <t>Integrate Volunteer model</t>
+  </si>
+  <si>
+    <t>Add volunteer reporting feature</t>
+  </si>
+  <si>
+    <t>Optimize performance and security</t>
+  </si>
+  <si>
+    <t>Develop activity report submission</t>
+  </si>
+  <si>
+    <t>Implement user notification feature</t>
+  </si>
+  <si>
+    <t>Prepare for production deployment</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>React&amp;ReactNative</t>
+  </si>
+  <si>
+    <t>React for Web dev while ReactNative for mobile, may lead to inconsistent UI representation</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Server load may increase, requiring performance monitoring</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Data scale growth may impact query efficiency</t>
+  </si>
+  <si>
+    <t>ClickUP</t>
+  </si>
+  <si>
+    <t>Automate, prioritize, and keep work moving—all while staying connected to Docs, Whiteboards, Chat, and more.</t>
+  </si>
+  <si>
+    <t>AfterSchool Ally</t>
+  </si>
+  <si>
+    <t>Zishang Peng, Shubham Verma, Zhuoran Zhang</t>
+  </si>
+  <si>
+    <t>Code may need to refactory to adapt additional code</t>
+  </si>
+  <si>
+    <t>Focus on async test</t>
+  </si>
+  <si>
+    <t>Index may needed</t>
+  </si>
+  <si>
+    <t>no need to change, may need to pay for the increase of tracking task</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Pre-production deploy may expose ui issues</t>
+  </si>
+  <si>
+    <t>May stability matter</t>
+  </si>
+  <si>
+    <t>Post-deployment may bring migration risk</t>
+  </si>
+  <si>
+    <t>Continues in use, may need to pay for the increase of tracking task</t>
   </si>
 </sst>
 </file>
@@ -750,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,9 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,9 +1007,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,9 +1050,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -992,6 +1109,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1829,170 +1961,170 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3125" customWidth="1"/>
-    <col min="2" max="2" width="74.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
@@ -2007,7 +2139,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>6</v>
@@ -2016,7 +2148,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="40" t="s">
         <v>7</v>
@@ -2024,80 +2156,136 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>101</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>102</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>103</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>104</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="19">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>105</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>106</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>107</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="19">
+        <v>4</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
         <v>9</v>
@@ -2105,58 +2293,106 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="73"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="73"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="73"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>201</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="93">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>202</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="93">
+        <v>4</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>203</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="93">
+        <v>3</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>204</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="93">
+        <v>3</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>205</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="93">
+        <v>4</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>206</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="93">
+        <v>3</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="10"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="37" t="s">
         <v>10</v>
@@ -2164,82 +2400,159 @@
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>301</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="93">
+        <v>3</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>302</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="93">
+        <v>4</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>303</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="93">
+        <v>4</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>304</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="93">
+        <v>3</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>305</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="93">
+        <v>4</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>306</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="93">
+        <v>3</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="74" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E43:G46"/>
+  <mergeCells count="2">
+    <mergeCell ref="E47:G50"/>
     <mergeCell ref="A2:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2254,75 +2567,84 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.15625" customWidth="1"/>
-    <col min="3" max="3" width="24.68359375" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" customWidth="1"/>
-    <col min="7" max="7" width="19.47265625" customWidth="1"/>
-    <col min="9" max="9" width="12.15625" customWidth="1"/>
-    <col min="10" max="10" width="14.15625" customWidth="1"/>
-    <col min="11" max="11" width="12.47265625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="81"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="82" t="s">
+      <c r="B4" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="11" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2336,64 +2658,120 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="57"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>101</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>102</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>103</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>104</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>105</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>106</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>107</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
@@ -2404,65 +2782,83 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="78" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
@@ -2470,30 +2866,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="6"/>
     </row>
   </sheetData>
@@ -2519,154 +2919,154 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.3125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.47265625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.15625" style="16"/>
+    <col min="1" max="1" width="35.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="89" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="86" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2685,9 +3085,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="17" t="s">
         <v>43</v>
       </c>
@@ -2704,178 +3104,220 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="24"/>
+    <row r="18" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53">
+        <v>101</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="10">
+        <v>8</v>
+      </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="24"/>
+    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53">
+        <v>102</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="10">
+        <v>8</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="24"/>
+    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53">
+        <v>103</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="10">
+        <v>12</v>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="24"/>
+    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53">
+        <v>104</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="10">
+        <v>16</v>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="24"/>
+    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53">
+        <v>105</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="24"/>
+    <row r="23" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53">
+        <v>106</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="10">
+        <v>12</v>
+      </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53">
+        <v>107</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="10">
+        <v>16</v>
+      </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="56"/>
+    <row r="30" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="56"/>
+    <row r="31" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="56"/>
+    <row r="32" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="56"/>
+    <row r="33" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="56"/>
+    <row r="34" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="56"/>
+    <row r="35" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="56"/>
+    <row r="36" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -2884,181 +3326,181 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="63"/>
-    </row>
-    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="54"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="63"/>
-    </row>
-    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="54"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="54"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="56"/>
-    </row>
-    <row r="50" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="56"/>
-    </row>
-    <row r="51" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="56"/>
+    <row r="38" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="61"/>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="53"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="61"/>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="53"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="61"/>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="90" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92" cm="1">
+      <c r="B52" s="88"/>
+      <c r="C52" s="89" cm="1">
         <f t="array" ref="C52">SUM(C18:C51*4)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="92" cm="1">
+      <c r="D52" s="89" cm="1">
         <f t="array" ref="D52">SUM(D18:D51*4)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="92" cm="1">
+        <v>320</v>
+      </c>
+      <c r="E52" s="89" cm="1">
         <f t="array" ref="E52">SUM(E18:E51*4)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="92" cm="1">
+      <c r="F52" s="89" cm="1">
         <f t="array" ref="F52">SUM(F18:F51*4)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="92" cm="1">
+      <c r="G52" s="89" cm="1">
         <f t="array" ref="G52">SUM(G18:G51*4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="83" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="85">
+      <c r="B54" s="81"/>
+      <c r="C54" s="82">
         <f>SUM(C52:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
+        <v>320</v>
+      </c>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3084,170 +3526,170 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+      <selection activeCell="A31" sqref="A31:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3125" customWidth="1"/>
-    <col min="2" max="2" width="74.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
@@ -3262,7 +3704,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>48</v>
@@ -3271,7 +3713,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="40" t="s">
         <v>7</v>
@@ -3279,77 +3721,77 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="21"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="21"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="21"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="21"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="21"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="21"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="22"/>
       <c r="C24" s="21"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="40" t="s">
         <v>9</v>
@@ -3357,58 +3799,106 @@
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="23"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="23"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="48"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>201</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="93">
+        <v>3</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>202</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="93">
+        <v>4</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>203</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="93">
+        <v>3</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>204</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="52">
+        <v>3</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>205</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="93">
+        <v>4</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>206</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="52">
+        <v>3</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="48"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="51" t="s">
         <v>10</v>
@@ -3416,106 +3906,170 @@
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="23"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>301</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="93">
+        <v>3</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>302</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="93">
+        <v>4</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>303</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="93">
+        <v>4</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>304</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="93">
+        <v>3</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>305</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="93">
+        <v>4</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>306</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="93">
+        <v>3</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="23"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="23"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="23"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="23"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J13"/>
-    <mergeCell ref="E43:G46"/>
+    <mergeCell ref="E45:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3530,74 +4084,83 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.15625" customWidth="1"/>
-    <col min="3" max="3" width="24.68359375" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" customWidth="1"/>
-    <col min="7" max="7" width="19.47265625" customWidth="1"/>
-    <col min="9" max="9" width="12.15625" customWidth="1"/>
-    <col min="10" max="10" width="14.15625" customWidth="1"/>
-    <col min="11" max="11" width="12.47265625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="81"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="82" t="s">
+      <c r="B4" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="11" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
@@ -3611,64 +4174,112 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>201</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>202</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>203</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>204</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>205</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>206</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
@@ -3679,58 +4290,76 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
@@ -3738,7 +4367,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>54</v>
       </c>
@@ -3746,30 +4375,34 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="6"/>
     </row>
   </sheetData>
@@ -3794,154 +4427,154 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.68359375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="31.83984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="20.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.47265625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.15625" style="16"/>
+    <col min="1" max="1" width="21.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+    </row>
+    <row r="9" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="89" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="86" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -3960,9 +4593,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="17" t="s">
         <v>43</v>
       </c>
@@ -3979,178 +4612,214 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>201</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="55"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24">
+        <v>12</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>202</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="55"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="24">
+        <v>16</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>203</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="55"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24">
+        <v>12</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>204</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="55"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24">
+        <v>12</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>205</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="55"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="24">
+        <v>16</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>206</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="55"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <v>12</v>
+      </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="56"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="56"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="56"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="56"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="56"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="56"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="56"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -4159,190 +4828,190 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="69"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="69"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="69"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="63"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="69"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="63"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="66"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="63"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="70"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="56"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="56"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="56"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="67"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="67"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="67"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="67"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="64"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="61"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="61"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="61"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="90" t="s">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="92" cm="1">
+      <c r="B53" s="87"/>
+      <c r="C53" s="89" cm="1">
         <f t="array" ref="C53">SUM(C18:C52*4)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="92" cm="1">
+      <c r="D53" s="89" cm="1">
         <f t="array" ref="D53">SUM(D18:D52*4)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="92" cm="1">
+      <c r="E53" s="89" cm="1">
         <f t="array" ref="E53">SUM(E18:E52*4)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="92" cm="1">
+        <v>320</v>
+      </c>
+      <c r="F53" s="89" cm="1">
         <f t="array" ref="F53">SUM(F18:F52*4)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="92" cm="1">
+      <c r="G53" s="89" cm="1">
         <f t="array" ref="G53">SUM(G18:G52*4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="93" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="94">
+      <c r="B55" s="90"/>
+      <c r="C55" s="91">
         <f>SUM(C53:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
+        <v>320</v>
+      </c>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4371,167 +5040,167 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A41" sqref="A41:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3125" customWidth="1"/>
-    <col min="2" max="2" width="74.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
@@ -4546,7 +5215,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
         <v>48</v>
@@ -4555,7 +5224,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
       <c r="B17" s="40" t="s">
         <v>7</v>
@@ -4563,77 +5232,77 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="22"/>
       <c r="C24" s="21"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="22"/>
       <c r="C26" s="21"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="40" t="s">
         <v>9</v>
@@ -4641,58 +5310,58 @@
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="47"/>
       <c r="C33" s="10"/>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
       <c r="D34" s="48"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="50"/>
       <c r="C36" s="49"/>
       <c r="D36" s="48"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="48"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="51" t="s">
         <v>10</v>
@@ -4700,122 +5369,170 @@
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="23"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="19"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="19"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>301</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="93">
+        <v>3</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>302</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="93">
+        <v>4</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>303</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="93">
+        <v>4</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>304</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="93">
+        <v>3</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>305</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="93">
+        <v>4</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>306</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="93">
+        <v>3</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="49"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" s="52"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="49"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" s="52"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="44"/>
       <c r="B49" s="45"/>
       <c r="C49" s="46"/>
       <c r="D49" s="45"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34" t="s">
         <v>50</v>
@@ -4823,19 +5540,19 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4859,74 +5576,83 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.15625" customWidth="1"/>
-    <col min="3" max="3" width="24.68359375" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" customWidth="1"/>
-    <col min="7" max="7" width="19.47265625" customWidth="1"/>
-    <col min="9" max="9" width="12.15625" customWidth="1"/>
-    <col min="10" max="10" width="14.15625" customWidth="1"/>
-    <col min="11" max="11" width="12.47265625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="81"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="82" t="s">
+      <c r="B4" s="96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="11" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>19</v>
       </c>
@@ -4940,64 +5666,112 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>301</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>302</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>303</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>304</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>305</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>306</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>23</v>
       </c>
@@ -5008,58 +5782,76 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
@@ -5067,7 +5859,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
         <v>54</v>
       </c>
@@ -5075,30 +5867,34 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="6"/>
     </row>
   </sheetData>
@@ -5123,154 +5919,154 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="30.68359375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="20.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.68359375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.47265625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.15625" style="16"/>
+    <col min="1" max="1" width="19.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-    </row>
-    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+    </row>
+    <row r="9" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="89" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="86" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -5289,9 +6085,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="17" t="s">
         <v>43</v>
       </c>
@@ -5308,178 +6104,214 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>301</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="55"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="24">
+        <v>12</v>
+      </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>302</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="55"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="24">
+        <v>16</v>
+      </c>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>303</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="55"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="F20" s="24">
+        <v>16</v>
+      </c>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>304</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="55"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="24">
+        <v>12</v>
+      </c>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>305</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="55"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="F22" s="24">
+        <v>16</v>
+      </c>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>306</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="55"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="F23" s="24">
+        <v>12</v>
+      </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="56"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="56"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="56"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="56"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="56"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="56"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="56"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -5488,217 +6320,217 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="69"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="69"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="69"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="63"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="71"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="63"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="71"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="63"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="71"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="71"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="66"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="63"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="70"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="63"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="72"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="72"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="72"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="67"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="67"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="67"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="61"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="61"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="61"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="64"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="68"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="70"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="70"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="70"/>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="90" t="s">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="92" cm="1">
+      <c r="B56" s="87"/>
+      <c r="C56" s="89" cm="1">
         <f t="array" ref="C56">SUM(C18:C55*4)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="92" cm="1">
+      <c r="D56" s="89" cm="1">
         <f t="array" ref="D56">SUM(D18:D55*4)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="92" cm="1">
+      <c r="E56" s="89" cm="1">
         <f t="array" ref="E56">SUM(E18:E55*4)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="92" cm="1">
+      <c r="F56" s="89" cm="1">
         <f t="array" ref="F56">SUM(F18:F55*4)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="92" cm="1">
+        <v>336</v>
+      </c>
+      <c r="G56" s="89" cm="1">
         <f t="array" ref="G56">SUM(G18:G55*4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="93" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="94">
+      <c r="B58" s="90"/>
+      <c r="C58" s="91">
         <f>SUM(C56:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
+        <v>336</v>
+      </c>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5719,14 +6551,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1e7187b-45d7-4b0b-bba7-dc63b8bbb5b4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="65b9d225-16ca-46f6-ae18-b6551cf021c0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5933,21 +6763,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1e7187b-45d7-4b0b-bba7-dc63b8bbb5b4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="65b9d225-16ca-46f6-ae18-b6551cf021c0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC56548-19A4-4C90-9137-2F7841029EC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE6DBF0-6AD3-41C7-9516-5FD4B9A4B9B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1e7187b-45d7-4b0b-bba7-dc63b8bbb5b4"/>
-    <ds:schemaRef ds:uri="65b9d225-16ca-46f6-ae18-b6551cf021c0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5972,9 +6801,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE6DBF0-6AD3-41C7-9516-5FD4B9A4B9B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC56548-19A4-4C90-9137-2F7841029EC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a1e7187b-45d7-4b0b-bba7-dc63b8bbb5b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="65b9d225-16ca-46f6-ae18-b6551cf021c0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>